--- a/Graphs/ar5(IR強度弱い）のキャリブレーション.xlsx
+++ b/Graphs/ar5(IR強度弱い）のキャリブレーション.xlsx
@@ -12,6 +12,9 @@
     <sheet name="12" sheetId="2" r:id="rId3"/>
     <sheet name="13" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'13'!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -222,283 +225,283 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="195"/>
                 <c:pt idx="0">
-                  <c:v>66.499999999999886</c:v>
+                  <c:v>65.169999999999888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.834999999999894</c:v>
+                  <c:v>64.504999999999896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.169999999999902</c:v>
+                  <c:v>63.839999999999904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.839999999999897</c:v>
+                  <c:v>62.509999999999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.174999999999891</c:v>
+                  <c:v>61.844999999999892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.509999999999899</c:v>
+                  <c:v>61.1799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.844999999999892</c:v>
+                  <c:v>60.514999999999894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.1799999999999</c:v>
+                  <c:v>59.849999999999902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.84749999999989</c:v>
+                  <c:v>59.517499999999892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.514999999999894</c:v>
+                  <c:v>59.184999999999896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.182499999999898</c:v>
+                  <c:v>58.8524999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.849999999999888</c:v>
+                  <c:v>58.519999999999889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.184999999999896</c:v>
+                  <c:v>57.854999999999897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.519999999999889</c:v>
+                  <c:v>57.189999999999891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.189999999999891</c:v>
+                  <c:v>55.859999999999893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.859999999999893</c:v>
+                  <c:v>54.529999999999895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.416666666666593</c:v>
+                  <c:v>54.086666666666595</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.973333333333194</c:v>
+                  <c:v>53.643333333333196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.529999999999895</c:v>
+                  <c:v>53.199999999999896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.864999999999888</c:v>
+                  <c:v>52.53499999999989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.199999999999896</c:v>
+                  <c:v>51.869999999999898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.869999999999891</c:v>
+                  <c:v>50.539999999999893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.204999999999892</c:v>
+                  <c:v>49.874999999999893</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.539999999999893</c:v>
+                  <c:v>49.209999999999894</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.209999999999894</c:v>
+                  <c:v>47.879999999999896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.544999999999895</c:v>
+                  <c:v>47.214999999999897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.879999999999889</c:v>
+                  <c:v>46.549999999999891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.214999999999897</c:v>
+                  <c:v>45.884999999999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.549999999999891</c:v>
+                  <c:v>45.219999999999892</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.884999999999899</c:v>
+                  <c:v>44.5549999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.219999999999892</c:v>
+                  <c:v>43.889999999999894</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.776666666666593</c:v>
+                  <c:v>43.446666666666594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44.333333333333194</c:v>
+                  <c:v>43.003333333333195</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>15.959999999999894</c:v>
@@ -1320,11 +1323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="358668432"/>
-        <c:axId val="358673136"/>
+        <c:axId val="908546200"/>
+        <c:axId val="908546592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="358668432"/>
+        <c:axId val="908546200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1438,12 +1441,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358673136"/>
+        <c:crossAx val="908546592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358673136"/>
+        <c:axId val="908546592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1555,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358668432"/>
+        <c:crossAx val="908546200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1660,283 +1663,283 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>66.499999999999886</c:v>
+                  <c:v>65.169999999999888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.834999999999894</c:v>
+                  <c:v>64.504999999999896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.169999999999902</c:v>
+                  <c:v>63.839999999999904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.839999999999897</c:v>
+                  <c:v>62.509999999999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.174999999999891</c:v>
+                  <c:v>61.844999999999892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.509999999999899</c:v>
+                  <c:v>61.1799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.844999999999892</c:v>
+                  <c:v>60.514999999999894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.1799999999999</c:v>
+                  <c:v>59.849999999999902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.84749999999989</c:v>
+                  <c:v>59.517499999999892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.514999999999894</c:v>
+                  <c:v>59.184999999999896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.182499999999898</c:v>
+                  <c:v>58.8524999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.849999999999888</c:v>
+                  <c:v>58.519999999999889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.184999999999896</c:v>
+                  <c:v>57.854999999999897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.519999999999889</c:v>
+                  <c:v>57.189999999999891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.189999999999891</c:v>
+                  <c:v>55.859999999999893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.859999999999893</c:v>
+                  <c:v>54.529999999999895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.416666666666593</c:v>
+                  <c:v>54.086666666666595</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.973333333333194</c:v>
+                  <c:v>53.643333333333196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.529999999999895</c:v>
+                  <c:v>53.199999999999896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.864999999999888</c:v>
+                  <c:v>52.53499999999989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.199999999999896</c:v>
+                  <c:v>51.869999999999898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.869999999999891</c:v>
+                  <c:v>50.539999999999893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.204999999999892</c:v>
+                  <c:v>49.874999999999893</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.539999999999893</c:v>
+                  <c:v>49.209999999999894</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.209999999999894</c:v>
+                  <c:v>47.879999999999896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.544999999999895</c:v>
+                  <c:v>47.214999999999897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.879999999999889</c:v>
+                  <c:v>46.549999999999891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.214999999999897</c:v>
+                  <c:v>45.884999999999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.549999999999891</c:v>
+                  <c:v>45.219999999999892</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.884999999999899</c:v>
+                  <c:v>44.5549999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.219999999999892</c:v>
+                  <c:v>43.889999999999894</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.776666666666593</c:v>
+                  <c:v>43.446666666666594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44.333333333333194</c:v>
+                  <c:v>43.003333333333195</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>15.959999999999894</c:v>
@@ -2758,11 +2761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="431512120"/>
-        <c:axId val="431507416"/>
+        <c:axId val="908546984"/>
+        <c:axId val="908559136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="431512120"/>
+        <c:axId val="908546984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2876,12 +2879,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431507416"/>
+        <c:crossAx val="908559136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="431507416"/>
+        <c:axId val="908559136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,7 +2994,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431512120"/>
+        <c:crossAx val="908546984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3768,11 +3771,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="358666080"/>
-        <c:axId val="358669608"/>
+        <c:axId val="908535616"/>
+        <c:axId val="908541888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="358666080"/>
+        <c:axId val="908535616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -3886,12 +3889,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358669608"/>
+        <c:crossAx val="908541888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358669608"/>
+        <c:axId val="908541888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4000,7 +4003,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358666080"/>
+        <c:crossAx val="908535616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4175,283 +4178,283 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="195"/>
                 <c:pt idx="0">
-                  <c:v>66.499999999999886</c:v>
+                  <c:v>65.169999999999888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.834999999999894</c:v>
+                  <c:v>64.504999999999896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.169999999999902</c:v>
+                  <c:v>63.839999999999904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.839999999999897</c:v>
+                  <c:v>62.509999999999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.174999999999891</c:v>
+                  <c:v>61.844999999999892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.509999999999899</c:v>
+                  <c:v>61.1799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.844999999999892</c:v>
+                  <c:v>60.514999999999894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.1799999999999</c:v>
+                  <c:v>59.849999999999902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.84749999999989</c:v>
+                  <c:v>59.517499999999892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.514999999999894</c:v>
+                  <c:v>59.184999999999896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.182499999999898</c:v>
+                  <c:v>58.8524999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.849999999999888</c:v>
+                  <c:v>58.519999999999889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.184999999999896</c:v>
+                  <c:v>57.854999999999897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.519999999999889</c:v>
+                  <c:v>57.189999999999891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.189999999999891</c:v>
+                  <c:v>55.859999999999893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.859999999999893</c:v>
+                  <c:v>54.529999999999895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.416666666666593</c:v>
+                  <c:v>54.086666666666595</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.973333333333194</c:v>
+                  <c:v>53.643333333333196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.529999999999895</c:v>
+                  <c:v>53.199999999999896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.864999999999888</c:v>
+                  <c:v>52.53499999999989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.199999999999896</c:v>
+                  <c:v>51.869999999999898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.869999999999891</c:v>
+                  <c:v>50.539999999999893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.204999999999892</c:v>
+                  <c:v>49.874999999999893</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.539999999999893</c:v>
+                  <c:v>49.209999999999894</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.209999999999894</c:v>
+                  <c:v>47.879999999999896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.544999999999895</c:v>
+                  <c:v>47.214999999999897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.879999999999889</c:v>
+                  <c:v>46.549999999999891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.214999999999897</c:v>
+                  <c:v>45.884999999999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.549999999999891</c:v>
+                  <c:v>45.219999999999892</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.884999999999899</c:v>
+                  <c:v>44.5549999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.219999999999892</c:v>
+                  <c:v>43.889999999999894</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.776666666666593</c:v>
+                  <c:v>43.446666666666594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44.333333333333194</c:v>
+                  <c:v>43.003333333333195</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>15.959999999999894</c:v>
@@ -5273,11 +5276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="356083400"/>
-        <c:axId val="356080264"/>
+        <c:axId val="908542280"/>
+        <c:axId val="908544632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="356083400"/>
+        <c:axId val="908542280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -5391,12 +5394,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356080264"/>
+        <c:crossAx val="908544632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="356080264"/>
+        <c:axId val="908544632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5505,7 +5508,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356083400"/>
+        <c:crossAx val="908542280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5700,11 +5703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="356083792"/>
-        <c:axId val="356085360"/>
+        <c:axId val="908537184"/>
+        <c:axId val="908537968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="356083792"/>
+        <c:axId val="908537184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -5818,12 +5821,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356085360"/>
+        <c:crossAx val="908537968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="356085360"/>
+        <c:axId val="908537968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5932,7 +5935,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356083792"/>
+        <c:crossAx val="908537184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6127,11 +6130,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="356086144"/>
-        <c:axId val="356086536"/>
+        <c:axId val="908536008"/>
+        <c:axId val="908536792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="356086144"/>
+        <c:axId val="908536008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -6245,12 +6248,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356086536"/>
+        <c:crossAx val="908536792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="356086536"/>
+        <c:axId val="908536792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6359,7 +6362,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356086144"/>
+        <c:crossAx val="908536008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6554,11 +6557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="356081048"/>
-        <c:axId val="586502912"/>
+        <c:axId val="908552864"/>
+        <c:axId val="908553256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="356081048"/>
+        <c:axId val="908552864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -6672,12 +6675,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586502912"/>
+        <c:crossAx val="908553256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586502912"/>
+        <c:axId val="908553256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6786,7 +6789,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356081048"/>
+        <c:crossAx val="908552864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6957,283 +6960,283 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="195"/>
                 <c:pt idx="0">
-                  <c:v>66.499999999999886</c:v>
+                  <c:v>65.169999999999888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.834999999999894</c:v>
+                  <c:v>64.504999999999896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.169999999999902</c:v>
+                  <c:v>63.839999999999904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.839999999999897</c:v>
+                  <c:v>62.509999999999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.174999999999891</c:v>
+                  <c:v>61.844999999999892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.509999999999899</c:v>
+                  <c:v>61.1799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.844999999999892</c:v>
+                  <c:v>60.514999999999894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.1799999999999</c:v>
+                  <c:v>59.849999999999902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.84749999999989</c:v>
+                  <c:v>59.517499999999892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.514999999999894</c:v>
+                  <c:v>59.184999999999896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.182499999999898</c:v>
+                  <c:v>58.8524999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.849999999999888</c:v>
+                  <c:v>58.519999999999889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.184999999999896</c:v>
+                  <c:v>57.854999999999897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.519999999999889</c:v>
+                  <c:v>57.189999999999891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.189999999999891</c:v>
+                  <c:v>55.859999999999893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.859999999999893</c:v>
+                  <c:v>54.529999999999895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.416666666666593</c:v>
+                  <c:v>54.086666666666595</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.973333333333194</c:v>
+                  <c:v>53.643333333333196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.529999999999895</c:v>
+                  <c:v>53.199999999999896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.864999999999888</c:v>
+                  <c:v>52.53499999999989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.199999999999896</c:v>
+                  <c:v>51.869999999999898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.869999999999891</c:v>
+                  <c:v>50.539999999999893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.204999999999892</c:v>
+                  <c:v>49.874999999999893</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.539999999999893</c:v>
+                  <c:v>49.209999999999894</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.209999999999894</c:v>
+                  <c:v>47.879999999999896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.544999999999895</c:v>
+                  <c:v>47.214999999999897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.879999999999889</c:v>
+                  <c:v>46.549999999999891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.214999999999897</c:v>
+                  <c:v>45.884999999999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.549999999999891</c:v>
+                  <c:v>45.219999999999892</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.884999999999899</c:v>
+                  <c:v>44.5549999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.219999999999892</c:v>
+                  <c:v>43.889999999999894</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.776666666666593</c:v>
+                  <c:v>43.446666666666594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44.333333333333194</c:v>
+                  <c:v>43.003333333333195</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>15.959999999999894</c:v>
@@ -8709,283 +8712,283 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="195"/>
                 <c:pt idx="0">
-                  <c:v>66.499999999999886</c:v>
+                  <c:v>65.169999999999888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.834999999999894</c:v>
+                  <c:v>64.504999999999896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.169999999999902</c:v>
+                  <c:v>63.839999999999904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.839999999999897</c:v>
+                  <c:v>62.509999999999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.174999999999891</c:v>
+                  <c:v>61.844999999999892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.509999999999899</c:v>
+                  <c:v>61.1799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.844999999999892</c:v>
+                  <c:v>60.514999999999894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.1799999999999</c:v>
+                  <c:v>59.849999999999902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.84749999999989</c:v>
+                  <c:v>59.517499999999892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.514999999999894</c:v>
+                  <c:v>59.184999999999896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.182499999999898</c:v>
+                  <c:v>58.8524999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.849999999999888</c:v>
+                  <c:v>58.519999999999889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.184999999999896</c:v>
+                  <c:v>57.854999999999897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.519999999999889</c:v>
+                  <c:v>57.189999999999891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.189999999999891</c:v>
+                  <c:v>55.859999999999893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.859999999999893</c:v>
+                  <c:v>54.529999999999895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.416666666666593</c:v>
+                  <c:v>54.086666666666595</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.973333333333194</c:v>
+                  <c:v>53.643333333333196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.529999999999895</c:v>
+                  <c:v>53.199999999999896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.864999999999888</c:v>
+                  <c:v>52.53499999999989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.199999999999896</c:v>
+                  <c:v>51.869999999999898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.869999999999891</c:v>
+                  <c:v>50.539999999999893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.204999999999892</c:v>
+                  <c:v>49.874999999999893</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.539999999999893</c:v>
+                  <c:v>49.209999999999894</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.209999999999894</c:v>
+                  <c:v>47.879999999999896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.544999999999895</c:v>
+                  <c:v>47.214999999999897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.879999999999889</c:v>
+                  <c:v>46.549999999999891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.214999999999897</c:v>
+                  <c:v>45.884999999999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.549999999999891</c:v>
+                  <c:v>45.219999999999892</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.884999999999899</c:v>
+                  <c:v>44.5549999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.219999999999892</c:v>
+                  <c:v>43.889999999999894</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.776666666666593</c:v>
+                  <c:v>43.446666666666594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44.333333333333194</c:v>
+                  <c:v>43.003333333333195</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>15.959999999999894</c:v>
@@ -9945,11 +9948,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586505656"/>
-        <c:axId val="586503696"/>
+        <c:axId val="908557960"/>
+        <c:axId val="908554432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586505656"/>
+        <c:axId val="908557960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -10063,12 +10066,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586503696"/>
+        <c:crossAx val="908554432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586503696"/>
+        <c:axId val="908554432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10177,7 +10180,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586505656"/>
+        <c:crossAx val="908557960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10326,283 +10329,283 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>66.499999999999886</c:v>
+                  <c:v>65.169999999999888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.834999999999894</c:v>
+                  <c:v>64.504999999999896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.169999999999902</c:v>
+                  <c:v>63.839999999999904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.839999999999897</c:v>
+                  <c:v>62.509999999999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.174999999999891</c:v>
+                  <c:v>61.844999999999892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.509999999999899</c:v>
+                  <c:v>61.1799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.844999999999892</c:v>
+                  <c:v>60.514999999999894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.1799999999999</c:v>
+                  <c:v>59.849999999999902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.84749999999989</c:v>
+                  <c:v>59.517499999999892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.514999999999894</c:v>
+                  <c:v>59.184999999999896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.182499999999898</c:v>
+                  <c:v>58.8524999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.849999999999888</c:v>
+                  <c:v>58.519999999999889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.184999999999896</c:v>
+                  <c:v>57.854999999999897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.519999999999889</c:v>
+                  <c:v>57.189999999999891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.189999999999891</c:v>
+                  <c:v>55.859999999999893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.859999999999893</c:v>
+                  <c:v>54.529999999999895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.416666666666593</c:v>
+                  <c:v>54.086666666666595</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.973333333333194</c:v>
+                  <c:v>53.643333333333196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.529999999999895</c:v>
+                  <c:v>53.199999999999896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.864999999999888</c:v>
+                  <c:v>52.53499999999989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.199999999999896</c:v>
+                  <c:v>51.869999999999898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.869999999999891</c:v>
+                  <c:v>50.539999999999893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.204999999999892</c:v>
+                  <c:v>49.874999999999893</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.539999999999893</c:v>
+                  <c:v>49.209999999999894</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.209999999999894</c:v>
+                  <c:v>47.879999999999896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.544999999999895</c:v>
+                  <c:v>47.214999999999897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.879999999999889</c:v>
+                  <c:v>46.549999999999891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.214999999999897</c:v>
+                  <c:v>45.884999999999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.549999999999891</c:v>
+                  <c:v>45.219999999999892</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.884999999999899</c:v>
+                  <c:v>44.5549999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.219999999999892</c:v>
+                  <c:v>43.889999999999894</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.776666666666593</c:v>
+                  <c:v>43.446666666666594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44.333333333333194</c:v>
+                  <c:v>43.003333333333195</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>15.959999999999894</c:v>
@@ -11424,11 +11427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="586499776"/>
-        <c:axId val="586491544"/>
+        <c:axId val="908556784"/>
+        <c:axId val="908555216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="586499776"/>
+        <c:axId val="908556784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11541,12 +11544,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586491544"/>
+        <c:crossAx val="908555216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586491544"/>
+        <c:axId val="908555216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11656,7 +11659,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586499776"/>
+        <c:crossAx val="908556784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11769,283 +11772,283 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>66.499999999999886</c:v>
+                  <c:v>65.169999999999888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.834999999999894</c:v>
+                  <c:v>64.504999999999896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.169999999999902</c:v>
+                  <c:v>63.839999999999904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.839999999999897</c:v>
+                  <c:v>62.509999999999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.174999999999891</c:v>
+                  <c:v>61.844999999999892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.509999999999899</c:v>
+                  <c:v>61.1799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.844999999999892</c:v>
+                  <c:v>60.514999999999894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.1799999999999</c:v>
+                  <c:v>59.849999999999902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.84749999999989</c:v>
+                  <c:v>59.517499999999892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.514999999999894</c:v>
+                  <c:v>59.184999999999896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.182499999999898</c:v>
+                  <c:v>58.8524999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.849999999999888</c:v>
+                  <c:v>58.519999999999889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.184999999999896</c:v>
+                  <c:v>57.854999999999897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.519999999999889</c:v>
+                  <c:v>57.189999999999891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.189999999999891</c:v>
+                  <c:v>55.859999999999893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.859999999999893</c:v>
+                  <c:v>54.529999999999895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.416666666666593</c:v>
+                  <c:v>54.086666666666595</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.973333333333194</c:v>
+                  <c:v>53.643333333333196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.529999999999895</c:v>
+                  <c:v>53.199999999999896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.864999999999888</c:v>
+                  <c:v>52.53499999999989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.199999999999896</c:v>
+                  <c:v>51.869999999999898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.869999999999891</c:v>
+                  <c:v>50.539999999999893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.204999999999892</c:v>
+                  <c:v>49.874999999999893</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.539999999999893</c:v>
+                  <c:v>49.209999999999894</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.209999999999894</c:v>
+                  <c:v>47.879999999999896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.544999999999895</c:v>
+                  <c:v>47.214999999999897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.879999999999889</c:v>
+                  <c:v>46.549999999999891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.214999999999897</c:v>
+                  <c:v>45.884999999999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.549999999999891</c:v>
+                  <c:v>45.219999999999892</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.884999999999899</c:v>
+                  <c:v>44.5549999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.219999999999892</c:v>
+                  <c:v>43.889999999999894</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.776666666666593</c:v>
+                  <c:v>43.446666666666594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44.333333333333194</c:v>
+                  <c:v>43.003333333333195</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>15.959999999999894</c:v>
@@ -12867,11 +12870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="431506632"/>
-        <c:axId val="431508592"/>
+        <c:axId val="908552472"/>
+        <c:axId val="908557568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="431506632"/>
+        <c:axId val="908552472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -12985,12 +12988,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431508592"/>
+        <c:crossAx val="908557568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="431508592"/>
+        <c:axId val="908557568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13100,7 +13103,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431506632"/>
+        <c:crossAx val="908552472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19009,16 +19012,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19348,7 +19351,7 @@
   <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19358,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>66.499999999999886</v>
+        <v>65.169999999999888</v>
       </c>
       <c r="C1">
         <v>6826</v>
@@ -19373,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65.834999999999894</v>
+        <v>64.504999999999896</v>
       </c>
       <c r="C2">
         <v>6624</v>
@@ -19388,7 +19391,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65.169999999999902</v>
+        <v>63.839999999999904</v>
       </c>
       <c r="C3">
         <v>6883</v>
@@ -19403,7 +19406,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>63.839999999999897</v>
+        <v>62.509999999999899</v>
       </c>
       <c r="C4">
         <v>6134</v>
@@ -19418,7 +19421,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>63.174999999999891</v>
+        <v>61.844999999999892</v>
       </c>
       <c r="C5">
         <v>6498</v>
@@ -19433,7 +19436,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>62.509999999999899</v>
+        <v>61.1799999999999</v>
       </c>
       <c r="C6">
         <v>7002</v>
@@ -19448,7 +19451,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>61.844999999999892</v>
+        <v>60.514999999999894</v>
       </c>
       <c r="C7">
         <v>6975</v>
@@ -19463,7 +19466,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>61.1799999999999</v>
+        <v>59.849999999999902</v>
       </c>
       <c r="C8">
         <v>6338</v>
@@ -19478,7 +19481,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>60.84749999999989</v>
+        <v>59.517499999999892</v>
       </c>
       <c r="C9">
         <v>6742</v>
@@ -19493,7 +19496,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>60.514999999999894</v>
+        <v>59.184999999999896</v>
       </c>
       <c r="C10">
         <v>6790</v>
@@ -19508,7 +19511,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>60.182499999999898</v>
+        <v>58.8524999999999</v>
       </c>
       <c r="C11">
         <v>6712</v>
@@ -19523,7 +19526,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>59.849999999999888</v>
+        <v>58.519999999999889</v>
       </c>
       <c r="C12">
         <v>7131</v>
@@ -19538,7 +19541,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>59.184999999999896</v>
+        <v>57.854999999999897</v>
       </c>
       <c r="C13">
         <v>6597</v>
@@ -19553,7 +19556,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>58.519999999999889</v>
+        <v>57.189999999999891</v>
       </c>
       <c r="C14">
         <v>6611</v>
@@ -19568,7 +19571,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>57.189999999999891</v>
+        <v>55.859999999999893</v>
       </c>
       <c r="C15">
         <v>6259</v>
@@ -19583,7 +19586,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>55.859999999999893</v>
+        <v>54.529999999999895</v>
       </c>
       <c r="C16">
         <v>6829</v>
@@ -19598,7 +19601,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>55.416666666666593</v>
+        <v>54.086666666666595</v>
       </c>
       <c r="C17">
         <v>6511</v>
@@ -19613,7 +19616,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>54.973333333333194</v>
+        <v>53.643333333333196</v>
       </c>
       <c r="C18">
         <v>6524</v>
@@ -19628,7 +19631,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>54.529999999999895</v>
+        <v>53.199999999999896</v>
       </c>
       <c r="C19">
         <v>6993</v>
@@ -19643,7 +19646,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>53.864999999999888</v>
+        <v>52.53499999999989</v>
       </c>
       <c r="C20">
         <v>6419</v>
@@ -19658,7 +19661,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>53.199999999999896</v>
+        <v>51.869999999999898</v>
       </c>
       <c r="C21">
         <v>6076</v>
@@ -19673,7 +19676,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>51.869999999999891</v>
+        <v>50.539999999999893</v>
       </c>
       <c r="C22">
         <v>8098</v>
@@ -19688,7 +19691,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>51.204999999999892</v>
+        <v>49.874999999999893</v>
       </c>
       <c r="C23">
         <v>7386</v>
@@ -19703,7 +19706,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>50.539999999999893</v>
+        <v>49.209999999999894</v>
       </c>
       <c r="C24">
         <v>6881</v>
@@ -19718,7 +19721,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>49.209999999999894</v>
+        <v>47.879999999999896</v>
       </c>
       <c r="C25">
         <v>7110</v>
@@ -19733,7 +19736,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>48.544999999999895</v>
+        <v>47.214999999999897</v>
       </c>
       <c r="C26">
         <v>7050</v>
@@ -19748,7 +19751,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>47.879999999999889</v>
+        <v>46.549999999999891</v>
       </c>
       <c r="C27">
         <v>7291</v>
@@ -19763,7 +19766,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>47.214999999999897</v>
+        <v>45.884999999999899</v>
       </c>
       <c r="C28">
         <v>7180</v>
@@ -19778,7 +19781,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>46.549999999999891</v>
+        <v>45.219999999999892</v>
       </c>
       <c r="C29">
         <v>6280</v>
@@ -19793,7 +19796,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>45.884999999999899</v>
+        <v>44.5549999999999</v>
       </c>
       <c r="C30">
         <v>6522</v>
@@ -19808,7 +19811,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>45.219999999999892</v>
+        <v>43.889999999999894</v>
       </c>
       <c r="C31">
         <v>6787</v>
@@ -19823,7 +19826,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>44.776666666666593</v>
+        <v>43.446666666666594</v>
       </c>
       <c r="C32">
         <v>6610</v>
@@ -19838,7 +19841,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>44.333333333333194</v>
+        <v>43.003333333333195</v>
       </c>
       <c r="C33">
         <v>6233</v>
@@ -19853,7 +19856,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C34">
         <v>5776</v>
@@ -19868,7 +19871,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>43.446666666666594</v>
+        <v>42.116666666666596</v>
       </c>
       <c r="C35">
         <v>6522</v>
@@ -19883,7 +19886,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>43.003333333333195</v>
+        <v>41.673333333333197</v>
       </c>
       <c r="C36">
         <v>7128</v>
@@ -19898,7 +19901,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>42.559999999999896</v>
+        <v>41.229999999999897</v>
       </c>
       <c r="C37">
         <v>7391</v>
@@ -19913,7 +19916,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>41.894999999999889</v>
+        <v>40.564999999999891</v>
       </c>
       <c r="C38">
         <v>6151</v>
@@ -19928,7 +19931,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C39">
         <v>6062</v>
@@ -19943,7 +19946,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>40.786666666666598</v>
+        <v>39.456666666666599</v>
       </c>
       <c r="C40">
         <v>6298</v>
@@ -19958,7 +19961,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>40.343333333333199</v>
+        <v>39.0133333333332</v>
       </c>
       <c r="C41">
         <v>7071</v>
@@ -19973,7 +19976,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C42">
         <v>7647</v>
@@ -19988,7 +19991,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>39.234999999999893</v>
+        <v>37.904999999999895</v>
       </c>
       <c r="C43">
         <v>6789</v>
@@ -20003,7 +20006,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="C44">
         <v>5820</v>
@@ -20018,7 +20021,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>38.126666666666594</v>
+        <v>36.796666666666596</v>
       </c>
       <c r="C45">
         <v>6200</v>
@@ -20033,7 +20036,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>37.683333333333195</v>
+        <v>36.353333333333197</v>
       </c>
       <c r="C46">
         <v>6756</v>
@@ -20048,7 +20051,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>37.239999999999888</v>
+        <v>35.90999999999989</v>
       </c>
       <c r="C47">
         <v>8007</v>
@@ -20063,7 +20066,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>36.574999999999896</v>
+        <v>35.244999999999898</v>
       </c>
       <c r="C48">
         <v>6946</v>
@@ -20078,7 +20081,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>35.90999999999989</v>
+        <v>34.579999999999892</v>
       </c>
       <c r="C49">
         <v>5583</v>
@@ -20093,7 +20096,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>35.577499999999894</v>
+        <v>34.247499999999896</v>
       </c>
       <c r="C50">
         <v>5965</v>
@@ -20108,7 +20111,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>35.244999999999898</v>
+        <v>33.9149999999999</v>
       </c>
       <c r="C51">
         <v>6275</v>
@@ -20123,7 +20126,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>34.912499999999895</v>
+        <v>33.582499999999897</v>
       </c>
       <c r="C52">
         <v>7153</v>
@@ -20138,7 +20141,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C53">
         <v>8472</v>
@@ -20153,7 +20156,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>33.914999999999893</v>
+        <v>32.584999999999894</v>
       </c>
       <c r="C54">
         <v>5988</v>
@@ -20168,7 +20171,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="C55">
         <v>5823</v>
@@ -20183,7 +20186,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>32.806666666666594</v>
+        <v>31.476666666666596</v>
       </c>
       <c r="C56">
         <v>5940</v>
@@ -20198,7 +20201,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>32.363333333333294</v>
+        <v>31.033333333333296</v>
       </c>
       <c r="C57">
         <v>7881</v>
@@ -20213,7 +20216,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="C58">
         <v>8062</v>
@@ -20228,7 +20231,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>31.254999999999896</v>
+        <v>29.924999999999898</v>
       </c>
       <c r="C59">
         <v>5928</v>
@@ -20243,7 +20246,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C60">
         <v>4677</v>
@@ -20258,7 +20261,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>30.14666666666659</v>
+        <v>28.816666666666592</v>
       </c>
       <c r="C61">
         <v>5564</v>
@@ -20273,7 +20276,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>29.703333333333291</v>
+        <v>28.373333333333292</v>
       </c>
       <c r="C62">
         <v>6396</v>
@@ -20288,7 +20291,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C63">
         <v>8155</v>
@@ -20303,7 +20306,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>28.816666666666592</v>
+        <v>27.486666666666594</v>
       </c>
       <c r="C64">
         <v>7950</v>
@@ -20318,7 +20321,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>28.373333333333292</v>
+        <v>27.043333333333294</v>
       </c>
       <c r="C65">
         <v>5563</v>
@@ -20333,7 +20336,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C66">
         <v>4938</v>
@@ -20348,7 +20351,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>27.59749999999989</v>
+        <v>26.267499999999892</v>
       </c>
       <c r="C67">
         <v>5597</v>
@@ -20363,7 +20366,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>27.264999999999894</v>
+        <v>25.934999999999896</v>
       </c>
       <c r="C68">
         <v>7295</v>
@@ -20378,7 +20381,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>26.932499999999891</v>
+        <v>25.602499999999893</v>
       </c>
       <c r="C69">
         <v>8288</v>
@@ -20393,7 +20396,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="C70">
         <v>8724</v>
@@ -20408,7 +20411,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>25.934999999999896</v>
+        <v>24.604999999999897</v>
       </c>
       <c r="C71">
         <v>6947</v>
@@ -20423,7 +20426,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>25.269999999999897</v>
+        <v>23.939999999999898</v>
       </c>
       <c r="C72">
         <v>4983</v>
@@ -20438,7 +20441,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>24.937499999999893</v>
+        <v>23.607499999999895</v>
       </c>
       <c r="C73">
         <v>5345</v>
@@ -20453,7 +20456,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>24.60499999999989</v>
+        <v>23.274999999999892</v>
       </c>
       <c r="C74">
         <v>6632</v>
@@ -20468,7 +20471,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>24.272499999999894</v>
+        <v>22.942499999999896</v>
       </c>
       <c r="C75">
         <v>8306</v>
@@ -20483,7 +20486,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="C76">
         <v>8963</v>
@@ -20498,7 +20501,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>23.496666666666592</v>
+        <v>22.166666666666593</v>
       </c>
       <c r="C77">
         <v>6712</v>
@@ -20513,7 +20516,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>23.053333333333292</v>
+        <v>21.723333333333294</v>
       </c>
       <c r="C78">
         <v>5050</v>
@@ -20528,7 +20531,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="C79">
         <v>4748</v>
@@ -20543,7 +20546,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>22.166666666666593</v>
+        <v>20.836666666666595</v>
       </c>
       <c r="C80">
         <v>5855</v>
@@ -20558,7 +20561,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>21.723333333333294</v>
+        <v>20.393333333333295</v>
       </c>
       <c r="C81">
         <v>7359</v>
@@ -20573,7 +20576,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C82">
         <v>9335</v>
@@ -20588,7 +20591,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>20.836666666666595</v>
+        <v>19.506666666666597</v>
       </c>
       <c r="C83">
         <v>8447</v>
@@ -20603,7 +20606,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>20.393333333333295</v>
+        <v>19.063333333333297</v>
       </c>
       <c r="C84">
         <v>6124</v>
@@ -20618,7 +20621,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C85">
         <v>4455</v>
@@ -20633,7 +20636,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>19.683999999999891</v>
+        <v>18.353999999999893</v>
       </c>
       <c r="C86">
         <v>4912</v>
@@ -20648,7 +20651,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>19.417999999999893</v>
+        <v>18.087999999999894</v>
       </c>
       <c r="C87">
         <v>5764</v>
@@ -20663,7 +20666,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>19.151999999999894</v>
+        <v>17.821999999999896</v>
       </c>
       <c r="C88">
         <v>7579</v>
@@ -20678,7 +20681,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="C89">
         <v>8857</v>
@@ -20693,7 +20696,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>18.619999999999891</v>
+        <v>17.289999999999893</v>
       </c>
       <c r="C90">
         <v>9215</v>
@@ -20708,7 +20711,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>18.176666666666591</v>
+        <v>16.957499999999893</v>
       </c>
       <c r="C91">
         <v>7316</v>
@@ -20723,7 +20726,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>17.733333333333292</v>
+        <v>16.624999999999893</v>
       </c>
       <c r="C92">
         <v>4915</v>
@@ -20738,7 +20741,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>17.289999999999893</v>
+        <v>16.292499999999894</v>
       </c>
       <c r="C93">
         <v>4924</v>
@@ -21802,7 +21805,7 @@
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164">
         <v>0</v>
       </c>
       <c r="C164">
@@ -22198,7 +22201,7 @@
   <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="B1" sqref="B1:B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22208,7 +22211,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>66.499999999999886</v>
+        <v>65.169999999999888</v>
       </c>
       <c r="C1">
         <v>7562</v>
@@ -22223,7 +22226,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65.834999999999894</v>
+        <v>64.504999999999896</v>
       </c>
       <c r="C2">
         <v>7324</v>
@@ -22238,7 +22241,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65.169999999999902</v>
+        <v>63.839999999999904</v>
       </c>
       <c r="C3">
         <v>7632</v>
@@ -22253,7 +22256,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>63.839999999999897</v>
+        <v>62.509999999999899</v>
       </c>
       <c r="C4">
         <v>7098</v>
@@ -22268,7 +22271,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>63.174999999999891</v>
+        <v>61.844999999999892</v>
       </c>
       <c r="C5">
         <v>7178</v>
@@ -22283,7 +22286,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>62.509999999999899</v>
+        <v>61.1799999999999</v>
       </c>
       <c r="C6">
         <v>7027</v>
@@ -22298,7 +22301,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>61.844999999999892</v>
+        <v>60.514999999999894</v>
       </c>
       <c r="C7">
         <v>7102</v>
@@ -22313,7 +22316,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>61.1799999999999</v>
+        <v>59.849999999999902</v>
       </c>
       <c r="C8">
         <v>6669</v>
@@ -22328,7 +22331,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>60.84749999999989</v>
+        <v>59.517499999999892</v>
       </c>
       <c r="C9">
         <v>7156</v>
@@ -22343,7 +22346,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>60.514999999999894</v>
+        <v>59.184999999999896</v>
       </c>
       <c r="C10">
         <v>7906</v>
@@ -22358,7 +22361,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>60.182499999999898</v>
+        <v>58.8524999999999</v>
       </c>
       <c r="C11">
         <v>7404</v>
@@ -22373,7 +22376,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>59.849999999999888</v>
+        <v>58.519999999999889</v>
       </c>
       <c r="C12">
         <v>7112</v>
@@ -22388,7 +22391,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>59.184999999999896</v>
+        <v>57.854999999999897</v>
       </c>
       <c r="C13">
         <v>6959</v>
@@ -22403,7 +22406,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>58.519999999999889</v>
+        <v>57.189999999999891</v>
       </c>
       <c r="C14">
         <v>6962</v>
@@ -22418,7 +22421,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>57.189999999999891</v>
+        <v>55.859999999999893</v>
       </c>
       <c r="C15">
         <v>6764</v>
@@ -22433,7 +22436,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>55.859999999999893</v>
+        <v>54.529999999999895</v>
       </c>
       <c r="C16">
         <v>7020</v>
@@ -22448,7 +22451,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>55.416666666666593</v>
+        <v>54.086666666666595</v>
       </c>
       <c r="C17">
         <v>7795</v>
@@ -22463,7 +22466,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>54.973333333333194</v>
+        <v>53.643333333333196</v>
       </c>
       <c r="C18">
         <v>7393</v>
@@ -22478,7 +22481,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>54.529999999999895</v>
+        <v>53.199999999999896</v>
       </c>
       <c r="C19">
         <v>7294</v>
@@ -22493,7 +22496,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>53.864999999999888</v>
+        <v>52.53499999999989</v>
       </c>
       <c r="C20">
         <v>7118</v>
@@ -22508,7 +22511,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>53.199999999999896</v>
+        <v>51.869999999999898</v>
       </c>
       <c r="C21">
         <v>7382</v>
@@ -22523,7 +22526,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>51.869999999999891</v>
+        <v>50.539999999999893</v>
       </c>
       <c r="C22">
         <v>8764</v>
@@ -22538,7 +22541,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>51.204999999999892</v>
+        <v>49.874999999999893</v>
       </c>
       <c r="C23">
         <v>7625</v>
@@ -22553,7 +22556,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>50.539999999999893</v>
+        <v>49.209999999999894</v>
       </c>
       <c r="C24">
         <v>7434</v>
@@ -22568,7 +22571,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>49.209999999999894</v>
+        <v>47.879999999999896</v>
       </c>
       <c r="C25">
         <v>7502</v>
@@ -22583,7 +22586,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>48.544999999999895</v>
+        <v>47.214999999999897</v>
       </c>
       <c r="C26">
         <v>8212</v>
@@ -22598,7 +22601,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>47.879999999999889</v>
+        <v>46.549999999999891</v>
       </c>
       <c r="C27">
         <v>8927</v>
@@ -22613,7 +22616,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>47.214999999999897</v>
+        <v>45.884999999999899</v>
       </c>
       <c r="C28">
         <v>7338</v>
@@ -22628,7 +22631,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>46.549999999999891</v>
+        <v>45.219999999999892</v>
       </c>
       <c r="C29">
         <v>7212</v>
@@ -22643,7 +22646,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>45.884999999999899</v>
+        <v>44.5549999999999</v>
       </c>
       <c r="C30">
         <v>7594</v>
@@ -22658,7 +22661,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>45.219999999999892</v>
+        <v>43.889999999999894</v>
       </c>
       <c r="C31">
         <v>8108</v>
@@ -22673,7 +22676,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>44.776666666666593</v>
+        <v>43.446666666666594</v>
       </c>
       <c r="C32">
         <v>7714</v>
@@ -22688,7 +22691,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>44.333333333333194</v>
+        <v>43.003333333333195</v>
       </c>
       <c r="C33">
         <v>7267</v>
@@ -22703,7 +22706,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C34">
         <v>7120</v>
@@ -22718,7 +22721,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>43.446666666666594</v>
+        <v>42.116666666666596</v>
       </c>
       <c r="C35">
         <v>7558</v>
@@ -22733,7 +22736,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>43.003333333333195</v>
+        <v>41.673333333333197</v>
       </c>
       <c r="C36">
         <v>8006</v>
@@ -22748,7 +22751,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>42.559999999999896</v>
+        <v>41.229999999999897</v>
       </c>
       <c r="C37">
         <v>8333</v>
@@ -22763,7 +22766,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>41.894999999999889</v>
+        <v>40.564999999999891</v>
       </c>
       <c r="C38">
         <v>7316</v>
@@ -22778,7 +22781,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C39">
         <v>7207</v>
@@ -22793,7 +22796,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>40.786666666666598</v>
+        <v>39.456666666666599</v>
       </c>
       <c r="C40">
         <v>7575</v>
@@ -22808,7 +22811,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>40.343333333333199</v>
+        <v>39.0133333333332</v>
       </c>
       <c r="C41">
         <v>8478</v>
@@ -22823,7 +22826,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C42">
         <v>8880</v>
@@ -22838,7 +22841,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>39.234999999999893</v>
+        <v>37.904999999999895</v>
       </c>
       <c r="C43">
         <v>7613</v>
@@ -22853,7 +22856,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="C44">
         <v>6920</v>
@@ -22868,7 +22871,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>38.126666666666594</v>
+        <v>36.796666666666596</v>
       </c>
       <c r="C45">
         <v>7091</v>
@@ -22883,7 +22886,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>37.683333333333195</v>
+        <v>36.353333333333197</v>
       </c>
       <c r="C46">
         <v>8248</v>
@@ -22898,7 +22901,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>37.239999999999888</v>
+        <v>35.90999999999989</v>
       </c>
       <c r="C47">
         <v>9262</v>
@@ -22913,7 +22916,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>36.574999999999896</v>
+        <v>35.244999999999898</v>
       </c>
       <c r="C48">
         <v>8144</v>
@@ -22928,7 +22931,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>35.90999999999989</v>
+        <v>34.579999999999892</v>
       </c>
       <c r="C49">
         <v>6534</v>
@@ -22943,7 +22946,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>35.577499999999894</v>
+        <v>34.247499999999896</v>
       </c>
       <c r="C50">
         <v>6423</v>
@@ -22958,7 +22961,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>35.244999999999898</v>
+        <v>33.9149999999999</v>
       </c>
       <c r="C51">
         <v>7850</v>
@@ -22973,7 +22976,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>34.912499999999895</v>
+        <v>33.582499999999897</v>
       </c>
       <c r="C52">
         <v>8474</v>
@@ -22988,7 +22991,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C53">
         <v>8506</v>
@@ -23003,7 +23006,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>33.914999999999893</v>
+        <v>32.584999999999894</v>
       </c>
       <c r="C54">
         <v>7213</v>
@@ -23018,7 +23021,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="C55">
         <v>6641</v>
@@ -23033,7 +23036,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>32.806666666666594</v>
+        <v>31.476666666666596</v>
       </c>
       <c r="C56">
         <v>7838</v>
@@ -23048,7 +23051,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>32.363333333333294</v>
+        <v>31.033333333333296</v>
       </c>
       <c r="C57">
         <v>8384</v>
@@ -23063,7 +23066,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="C58">
         <v>9022</v>
@@ -23078,7 +23081,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>31.254999999999896</v>
+        <v>29.924999999999898</v>
       </c>
       <c r="C59">
         <v>7462</v>
@@ -23093,7 +23096,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C60">
         <v>6320</v>
@@ -23108,7 +23111,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>30.14666666666659</v>
+        <v>28.816666666666592</v>
       </c>
       <c r="C61">
         <v>6856</v>
@@ -23123,7 +23126,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>29.703333333333291</v>
+        <v>28.373333333333292</v>
       </c>
       <c r="C62">
         <v>7966</v>
@@ -23138,7 +23141,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C63">
         <v>9352</v>
@@ -23153,7 +23156,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>28.816666666666592</v>
+        <v>27.486666666666594</v>
       </c>
       <c r="C64">
         <v>8179</v>
@@ -23168,7 +23171,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>28.373333333333292</v>
+        <v>27.043333333333294</v>
       </c>
       <c r="C65">
         <v>7484</v>
@@ -23183,7 +23186,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C66">
         <v>6678</v>
@@ -23198,7 +23201,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>27.59749999999989</v>
+        <v>26.267499999999892</v>
       </c>
       <c r="C67">
         <v>7480</v>
@@ -23213,7 +23216,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>27.264999999999894</v>
+        <v>25.934999999999896</v>
       </c>
       <c r="C68">
         <v>8689</v>
@@ -23228,7 +23231,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>26.932499999999891</v>
+        <v>25.602499999999893</v>
       </c>
       <c r="C69">
         <v>8892</v>
@@ -23243,7 +23246,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="C70">
         <v>9550</v>
@@ -23258,7 +23261,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>25.934999999999896</v>
+        <v>24.604999999999897</v>
       </c>
       <c r="C71">
         <v>8273</v>
@@ -23273,7 +23276,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>25.269999999999897</v>
+        <v>23.939999999999898</v>
       </c>
       <c r="C72">
         <v>5812</v>
@@ -23288,7 +23291,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>24.937499999999893</v>
+        <v>23.607499999999895</v>
       </c>
       <c r="C73">
         <v>6515</v>
@@ -23303,7 +23306,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>24.60499999999989</v>
+        <v>23.274999999999892</v>
       </c>
       <c r="C74">
         <v>8956</v>
@@ -23318,7 +23321,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>24.272499999999894</v>
+        <v>22.942499999999896</v>
       </c>
       <c r="C75">
         <v>8677</v>
@@ -23333,7 +23336,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="C76">
         <v>9234</v>
@@ -23348,7 +23351,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>23.496666666666592</v>
+        <v>22.166666666666593</v>
       </c>
       <c r="C77">
         <v>8556</v>
@@ -23363,7 +23366,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>23.053333333333292</v>
+        <v>21.723333333333294</v>
       </c>
       <c r="C78">
         <v>6127</v>
@@ -23378,7 +23381,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="C79">
         <v>6032</v>
@@ -23393,7 +23396,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>22.166666666666593</v>
+        <v>20.836666666666595</v>
       </c>
       <c r="C80">
         <v>7774</v>
@@ -23408,7 +23411,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>21.723333333333294</v>
+        <v>20.393333333333295</v>
       </c>
       <c r="C81">
         <v>8343</v>
@@ -23423,7 +23426,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C82">
         <v>9648</v>
@@ -23438,7 +23441,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>20.836666666666595</v>
+        <v>19.506666666666597</v>
       </c>
       <c r="C83">
         <v>9555</v>
@@ -23453,7 +23456,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>20.393333333333295</v>
+        <v>19.063333333333297</v>
       </c>
       <c r="C84">
         <v>7816</v>
@@ -23468,7 +23471,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C85">
         <v>6361</v>
@@ -23483,7 +23486,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>19.683999999999891</v>
+        <v>18.353999999999893</v>
       </c>
       <c r="C86">
         <v>5815</v>
@@ -23498,7 +23501,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>19.417999999999893</v>
+        <v>18.087999999999894</v>
       </c>
       <c r="C87">
         <v>7003</v>
@@ -23513,7 +23516,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>19.151999999999894</v>
+        <v>17.821999999999896</v>
       </c>
       <c r="C88">
         <v>8936</v>
@@ -23528,7 +23531,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="C89">
         <v>9539</v>
@@ -23543,7 +23546,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>18.619999999999891</v>
+        <v>17.289999999999893</v>
       </c>
       <c r="C90">
         <v>9421</v>
@@ -23558,7 +23561,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>18.176666666666591</v>
+        <v>16.957499999999893</v>
       </c>
       <c r="C91">
         <v>8838</v>
@@ -23573,7 +23576,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>17.733333333333292</v>
+        <v>16.624999999999893</v>
       </c>
       <c r="C92">
         <v>6680</v>
@@ -23588,7 +23591,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>17.289999999999893</v>
+        <v>16.292499999999894</v>
       </c>
       <c r="C93">
         <v>5677</v>
@@ -25044,20 +25047,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>66.499999999999886</v>
+        <v>65.169999999999888</v>
       </c>
       <c r="C1">
         <v>9045</v>
@@ -25066,13 +25069,20 @@
         <f>C1/AVERAGE(C:C) -1</f>
         <v>-7.3199792208494818E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1">
+        <v>65.169999999999888</v>
+      </c>
+      <c r="F1">
+        <f>MOD(E1,1.33)</f>
+        <v>1.3299999999998846</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65.834999999999894</v>
+        <v>64.504999999999896</v>
       </c>
       <c r="C2">
         <v>9419</v>
@@ -25081,13 +25091,20 @@
         <f t="shared" ref="D2:D65" si="0">C2/AVERAGE(C:C) -1</f>
         <v>3.3726159836243053E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>64.504999999999896</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F65" si="1">MOD(E2,1.33)</f>
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65.169999999999902</v>
+        <v>63.839999999999904</v>
       </c>
       <c r="C3">
         <v>9553</v>
@@ -25096,13 +25113,20 @@
         <f t="shared" si="0"/>
         <v>4.8432530514452843E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>63.839999999999904</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1.3299999999999006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>63.839999999999897</v>
+        <v>62.509999999999899</v>
       </c>
       <c r="C4">
         <v>8689</v>
@@ -25111,13 +25135,20 @@
         <f t="shared" si="0"/>
         <v>-4.6390635649525835E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>62.509999999999899</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>63.174999999999891</v>
+        <v>61.844999999999892</v>
       </c>
       <c r="C5">
         <v>8165</v>
@@ -25126,13 +25157,20 @@
         <f t="shared" si="0"/>
         <v>-0.10389912994342021</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>61.844999999999892</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.66499999999988901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>62.509999999999899</v>
+        <v>61.1799999999999</v>
       </c>
       <c r="C6">
         <v>9357</v>
@@ -25141,13 +25179,20 @@
         <f t="shared" si="0"/>
         <v>2.692171967169843E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>61.1799999999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>61.844999999999892</v>
+        <v>60.514999999999894</v>
       </c>
       <c r="C7">
         <v>8801</v>
@@ -25156,13 +25201,20 @@
         <f t="shared" si="0"/>
         <v>-3.4098743739380488E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>60.514999999999894</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>61.1799999999999</v>
+        <v>59.849999999999902</v>
       </c>
       <c r="C8">
         <v>8438</v>
@@ -25171,13 +25223,20 @@
         <f t="shared" si="0"/>
         <v>-7.3937643412440912E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>59.849999999999902</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>60.84749999999989</v>
+        <v>59.517499999999892</v>
       </c>
       <c r="C9">
         <v>8875</v>
@@ -25186,13 +25245,20 @@
         <f t="shared" si="0"/>
         <v>-2.5977315155891523E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>59.517499999999892</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.99749999999988859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>60.514999999999894</v>
+        <v>59.184999999999896</v>
       </c>
       <c r="C10">
         <v>9015</v>
@@ -25201,13 +25267,20 @@
         <f t="shared" si="0"/>
         <v>-1.0612450268209894E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>59.184999999999896</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>60.182499999999898</v>
+        <v>58.8524999999999</v>
       </c>
       <c r="C11">
         <v>9468</v>
@@ -25216,13 +25289,20 @@
         <f t="shared" si="0"/>
         <v>3.9103862546931767E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>58.8524999999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.33249999999989654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>59.849999999999888</v>
+        <v>58.519999999999889</v>
       </c>
       <c r="C12">
         <v>8838</v>
@@ -25231,13 +25311,20 @@
         <f t="shared" si="0"/>
         <v>-3.0038029447636005E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>58.519999999999889</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>59.184999999999896</v>
+        <v>57.854999999999897</v>
       </c>
       <c r="C13">
         <v>8008</v>
@@ -25246,13 +25333,20 @@
         <f t="shared" si="0"/>
         <v>-0.12112972842460612</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>57.854999999999897</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>58.519999999999889</v>
+        <v>57.189999999999891</v>
       </c>
       <c r="C14">
         <v>9216</v>
@@ -25261,13 +25355,20 @@
         <f t="shared" si="0"/>
         <v>1.1447105749104569E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>57.189999999999891</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>57.189999999999891</v>
+        <v>55.859999999999893</v>
       </c>
       <c r="C15">
         <v>8488</v>
@@ -25276,13 +25377,20 @@
         <f t="shared" si="0"/>
         <v>-6.8450191666840299E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>55.859999999999893</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>55.859999999999893</v>
+        <v>54.529999999999895</v>
       </c>
       <c r="C16">
         <v>8814</v>
@@ -25291,13 +25399,20 @@
         <f t="shared" si="0"/>
         <v>-3.2672006285524247E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>54.529999999999895</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>55.416666666666593</v>
+        <v>54.086666666666595</v>
       </c>
       <c r="C17">
         <v>9191</v>
@@ -25306,13 +25421,20 @@
         <f t="shared" si="0"/>
         <v>8.703379876304318E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>54.086666666666595</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>54.973333333333194</v>
+        <v>53.643333333333196</v>
       </c>
       <c r="C18">
         <v>8372</v>
@@ -25321,13 +25443,20 @@
         <f t="shared" si="0"/>
         <v>-8.1181079716633686E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>53.643333333333196</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.44333333333319302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>54.529999999999895</v>
+        <v>53.199999999999896</v>
       </c>
       <c r="C19">
         <v>9318</v>
@@ -25336,13 +25465,20 @@
         <f t="shared" si="0"/>
         <v>2.2641507310129816E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>53.199999999999896</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>53.864999999999888</v>
+        <v>52.53499999999989</v>
       </c>
       <c r="C20">
         <v>9595</v>
@@ -25351,13 +25487,20 @@
         <f t="shared" si="0"/>
         <v>5.3041989980757265E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>52.53499999999989</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.66499999999988724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>53.199999999999896</v>
+        <v>51.869999999999898</v>
       </c>
       <c r="C21">
         <v>8829</v>
@@ -25366,13 +25509,20 @@
         <f t="shared" si="0"/>
         <v>-3.1025770761844096E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <v>51.869999999999898</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>51.869999999999891</v>
+        <v>50.539999999999893</v>
       </c>
       <c r="C22">
         <v>9820</v>
@@ -25381,13 +25531,20 @@
         <f t="shared" si="0"/>
         <v>7.7735522835959969E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>50.539999999999893</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>51.204999999999892</v>
+        <v>49.874999999999893</v>
       </c>
       <c r="C23">
         <v>9777</v>
@@ -25396,13 +25553,20 @@
         <f t="shared" si="0"/>
         <v>7.3016314334743537E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <v>49.874999999999893</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>50.539999999999893</v>
+        <v>49.209999999999894</v>
       </c>
       <c r="C24">
         <v>10036</v>
@@ -25411,13 +25575,20 @@
         <f t="shared" si="0"/>
         <v>0.10144131437695458</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>49.209999999999894</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>49.209999999999894</v>
+        <v>47.879999999999896</v>
       </c>
       <c r="C25">
         <v>9510</v>
@@ -25426,13 +25597,20 @@
         <f t="shared" si="0"/>
         <v>4.3713322013236189E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <v>47.879999999999896</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>48.544999999999895</v>
+        <v>47.214999999999897</v>
       </c>
       <c r="C26">
         <v>8645</v>
@@ -25441,13 +25619,20 @@
         <f t="shared" si="0"/>
         <v>-5.1219593185654388E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <v>47.214999999999897</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>47.879999999999889</v>
+        <v>46.549999999999891</v>
       </c>
       <c r="C27">
         <v>10032</v>
@@ -25456,13 +25641,20 @@
         <f t="shared" si="0"/>
         <v>0.10100231823730654</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <v>46.549999999999891</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>47.214999999999897</v>
+        <v>45.884999999999899</v>
       </c>
       <c r="C28">
         <v>9749</v>
@@ -25471,13 +25663,20 @@
         <f t="shared" si="0"/>
         <v>6.9943341357207034E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <v>45.884999999999899</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>46.549999999999891</v>
+        <v>45.219999999999892</v>
       </c>
       <c r="C29">
         <v>9057</v>
@@ -25486,13 +25685,20 @@
         <f t="shared" si="0"/>
         <v>-6.0029908019053613E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <v>45.219999999999892</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>45.884999999999899</v>
+        <v>44.5549999999999</v>
       </c>
       <c r="C30">
         <v>8262</v>
@@ -25501,13 +25707,20 @@
         <f t="shared" si="0"/>
         <v>-9.3253473556955013E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30">
+        <v>44.5549999999999</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.6649999999998979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>45.219999999999892</v>
+        <v>43.889999999999894</v>
       </c>
       <c r="C31">
         <v>8947</v>
@@ -25516,13 +25729,20 @@
         <f t="shared" si="0"/>
         <v>-1.8075384642226688E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <v>43.889999999999894</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>44.776666666666593</v>
+        <v>43.446666666666594</v>
       </c>
       <c r="C32">
         <v>9459</v>
@@ -25531,13 +25751,20 @@
         <f t="shared" si="0"/>
         <v>3.8116121232723676E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E32">
+        <v>43.446666666666594</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>44.333333333333194</v>
+        <v>43.003333333333195</v>
       </c>
       <c r="C33">
         <v>9344</v>
@@ -25546,13 +25773,20 @@
         <f t="shared" si="0"/>
         <v>2.5494982217842077E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E33">
+        <v>43.003333333333195</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.44333333333319302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C34">
         <v>8904</v>
@@ -25561,13 +25795,20 @@
         <f t="shared" si="0"/>
         <v>-2.2794593143443231E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E34">
+        <v>42.559999999999896</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>43.446666666666594</v>
+        <v>42.116666666666596</v>
       </c>
       <c r="C35">
         <v>8417</v>
@@ -25576,13 +25817,20 @@
         <f t="shared" si="0"/>
         <v>-7.6242373145593123E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E35">
+        <v>42.116666666666596</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>43.003333333333195</v>
+        <v>41.673333333333197</v>
       </c>
       <c r="C36">
         <v>8652</v>
@@ -25591,13 +25839,20 @@
         <f t="shared" si="0"/>
         <v>-5.0451349941270318E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E36">
+        <v>41.673333333333197</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.4433333333331948</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>42.559999999999896</v>
+        <v>41.229999999999897</v>
       </c>
       <c r="C37">
         <v>9336</v>
@@ -25606,13 +25861,20 @@
         <f t="shared" si="0"/>
         <v>2.4616989938545997E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E37">
+        <v>41.229999999999897</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>41.894999999999889</v>
+        <v>40.564999999999891</v>
       </c>
       <c r="C38">
         <v>9535</v>
@@ -25621,13 +25883,20 @@
         <f t="shared" si="0"/>
         <v>4.645704788603644E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E38">
+        <v>40.564999999999891</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.66499999999988901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C39">
         <v>8391</v>
@@ -25636,13 +25905,20 @@
         <f t="shared" si="0"/>
         <v>-7.9095848053305495E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E39">
+        <v>39.899999999999899</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>40.786666666666598</v>
+        <v>39.456666666666599</v>
       </c>
       <c r="C40">
         <v>8300</v>
@@ -25651,13 +25927,20 @@
         <f t="shared" si="0"/>
         <v>-8.9083010230298632E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E40">
+        <v>39.456666666666599</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659744</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>40.343333333333199</v>
+        <v>39.0133333333332</v>
       </c>
       <c r="C41">
         <v>9153</v>
@@ -25666,13 +25949,20 @@
         <f t="shared" si="0"/>
         <v>4.5329165496479362E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E41">
+        <v>39.0133333333332</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0.44333333333319835</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C42">
         <v>10217</v>
@@ -25681,13 +25971,20 @@
         <f t="shared" si="0"/>
         <v>0.12130588969602885</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E42">
+        <v>38.569999999999894</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>39.234999999999893</v>
+        <v>37.904999999999895</v>
       </c>
       <c r="C43">
         <v>11000</v>
@@ -25696,13 +25993,20 @@
         <f t="shared" si="0"/>
         <v>0.20723938403213449</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E43">
+        <v>37.904999999999895</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="C44">
         <v>8214</v>
@@ -25711,13 +26015,20 @@
         <f t="shared" si="0"/>
         <v>-9.8521427232731607E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E44">
+        <v>37.239999999999895</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>38.126666666666594</v>
+        <v>36.796666666666596</v>
       </c>
       <c r="C45">
         <v>8071</v>
@@ -25726,13 +26037,20 @@
         <f t="shared" si="0"/>
         <v>-0.11421553922514938</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E45">
+        <v>36.796666666666596</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>37.683333333333195</v>
+        <v>36.353333333333197</v>
       </c>
       <c r="C46">
         <v>8046</v>
@@ -25741,13 +26059,20 @@
         <f t="shared" si="0"/>
         <v>-0.11695926509794963</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E46">
+        <v>36.353333333333197</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0.4433333333331948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>37.239999999999888</v>
+        <v>35.90999999999989</v>
       </c>
       <c r="C47">
         <v>10139</v>
@@ -25756,13 +26081,20 @@
         <f t="shared" si="0"/>
         <v>0.11274546497289184</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E47">
+        <v>35.90999999999989</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>36.574999999999896</v>
+        <v>35.244999999999898</v>
       </c>
       <c r="C48">
         <v>10251</v>
@@ -25771,13 +26103,20 @@
         <f t="shared" si="0"/>
         <v>0.12503735688303719</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E48">
+        <v>35.244999999999898</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989612</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>35.90999999999989</v>
+        <v>34.579999999999892</v>
       </c>
       <c r="C49">
         <v>8348</v>
@@ -25786,13 +26125,20 @@
         <f t="shared" si="0"/>
         <v>-8.3815056554522038E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E49">
+        <v>34.579999999999892</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>35.577499999999894</v>
+        <v>34.247499999999896</v>
       </c>
       <c r="C50">
         <v>7377</v>
@@ -25801,13 +26147,20 @@
         <f t="shared" si="0"/>
         <v>-0.1903813694540859</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E50">
+        <v>34.247499999999896</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0.99749999999989392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>35.244999999999898</v>
+        <v>33.9149999999999</v>
       </c>
       <c r="C51">
         <v>7482</v>
@@ -25816,13 +26169,20 @@
         <f t="shared" si="0"/>
         <v>-0.17885772078832463</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E51">
+        <v>33.9149999999999</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0.6649999999998979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>34.912499999999895</v>
+        <v>33.582499999999897</v>
       </c>
       <c r="C52">
         <v>8942</v>
@@ -25831,13 +26191,20 @@
         <f t="shared" si="0"/>
         <v>-1.8624129816786739E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E52">
+        <v>33.582499999999897</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.33249999999989477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C53">
         <v>10795</v>
@@ -25846,13 +26213,20 @@
         <f t="shared" si="0"/>
         <v>0.18474083187517198</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E53">
+        <v>33.249999999999893</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>33.914999999999893</v>
+        <v>32.584999999999894</v>
       </c>
       <c r="C54">
         <v>9604</v>
@@ -25861,13 +26235,20 @@
         <f t="shared" si="0"/>
         <v>5.4029731294965355E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E54">
+        <v>32.584999999999894</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="C55">
         <v>7750</v>
@@ -25876,13 +26257,20 @@
         <f t="shared" si="0"/>
         <v>-0.14944497943190527</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E55">
+        <v>31.919999999999895</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>32.806666666666594</v>
+        <v>31.476666666666596</v>
       </c>
       <c r="C56">
         <v>7762</v>
@@ -25891,13 +26279,20 @@
         <f t="shared" si="0"/>
         <v>-0.14812799101296115</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E56">
+        <v>31.476666666666596</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>32.363333333333294</v>
+        <v>31.033333333333296</v>
       </c>
       <c r="C57">
         <v>8559</v>
@@ -25906,13 +26301,20 @@
         <f t="shared" si="0"/>
         <v>-6.0658010188087363E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E57">
+        <v>31.033333333333296</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0.44333333333329428</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="C58">
         <v>10132</v>
@@ -25921,13 +26323,20 @@
         <f t="shared" si="0"/>
         <v>0.11197722172850777</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E58">
+        <v>30.589999999999897</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>31.254999999999896</v>
+        <v>29.924999999999898</v>
       </c>
       <c r="C59">
         <v>9657</v>
@@ -25936,13 +26345,20 @@
         <f t="shared" si="0"/>
         <v>5.984643014530211E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E59">
+        <v>29.924999999999898</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989612</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C60">
         <v>7674</v>
@@ -25951,13 +26367,20 @@
         <f t="shared" si="0"/>
         <v>-0.15778590608521825</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E60">
+        <v>29.259999999999899</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>30.14666666666659</v>
+        <v>28.816666666666592</v>
       </c>
       <c r="C61">
         <v>7181</v>
@@ -25966,13 +26389,20 @@
         <f t="shared" si="0"/>
         <v>-0.2118921802968402</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E61">
+        <v>28.816666666666592</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>29.703333333333291</v>
+        <v>28.373333333333292</v>
       </c>
       <c r="C62">
         <v>7842</v>
@@ -25981,13 +26411,20 @@
         <f t="shared" si="0"/>
         <v>-0.13934806822000012</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E62">
+        <v>28.373333333333292</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0.44333333333329072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C63">
         <v>8949</v>
@@ -25996,13 +26433,20 @@
         <f t="shared" si="0"/>
         <v>-1.7855886572402668E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E63">
+        <v>27.929999999999893</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>28.816666666666592</v>
+        <v>27.486666666666594</v>
       </c>
       <c r="C64">
         <v>10341</v>
@@ -26011,13 +26455,20 @@
         <f t="shared" si="0"/>
         <v>0.13491477002511831</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E64">
+        <v>27.486666666666594</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>28.373333333333292</v>
+        <v>27.043333333333294</v>
       </c>
       <c r="C65">
         <v>9291</v>
@@ -26026,428 +26477,635 @@
         <f t="shared" si="0"/>
         <v>1.9678283367505545E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E65">
+        <v>27.043333333333294</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>0.4433333333332925</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C66">
         <v>8523</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="1">C66/AVERAGE(C:C) -1</f>
+        <f t="shared" ref="D66:D129" si="2">C66/AVERAGE(C:C) -1</f>
         <v>-6.4608975444919836E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E66">
+        <v>26.599999999999895</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F129" si="3">MOD(E66,1.33)</f>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>27.59749999999989</v>
+        <v>26.267499999999892</v>
       </c>
       <c r="C67">
         <v>7325</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.19608831926951054</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E67">
+        <v>26.267499999999892</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="3"/>
+        <v>0.99749999999989036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>27.264999999999894</v>
+        <v>25.934999999999896</v>
       </c>
       <c r="C68">
         <v>8502</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.6913705178072158E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E68">
+        <v>25.934999999999896</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>0.66499999999989434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>26.932499999999891</v>
+        <v>25.602499999999893</v>
       </c>
       <c r="C69">
         <v>9482</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0640349035699908E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E69">
+        <v>25.602499999999893</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>0.33249999999989122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="C70">
         <v>11337</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24422480879748254</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E70">
+        <v>25.269999999999897</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>25.934999999999896</v>
+        <v>24.604999999999897</v>
       </c>
       <c r="C71">
         <v>10502</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15258436464595238</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E71">
+        <v>24.604999999999897</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>0.66499999999989612</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>25.269999999999897</v>
+        <v>23.939999999999898</v>
       </c>
       <c r="C72">
         <v>8455</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.207190981893663E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E72">
+        <v>23.939999999999898</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>24.937499999999893</v>
+        <v>23.607499999999895</v>
       </c>
       <c r="C73">
         <v>6423</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.29508194876014548</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E73">
+        <v>23.607499999999895</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>0.99749999999989392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>24.60499999999989</v>
+        <v>23.274999999999892</v>
       </c>
       <c r="C74">
         <v>7722</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.15251795240944166</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E74">
+        <v>23.274999999999892</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>0.66499999999989079</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>24.272499999999894</v>
+        <v>22.942499999999896</v>
       </c>
       <c r="C75">
         <v>8863</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.7294303574835643E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E75">
+        <v>22.942499999999896</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>0.33249999999989477</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="C76">
         <v>9862</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2344982302264613E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E76">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>23.496666666666592</v>
+        <v>22.166666666666593</v>
       </c>
       <c r="C77">
         <v>11035</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21108060025405484</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E77">
+        <v>22.166666666666593</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>23.053333333333292</v>
+        <v>21.723333333333294</v>
       </c>
       <c r="C78">
         <v>8202</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.9838415651675727E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E78">
+        <v>21.723333333333294</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>0.4433333333332925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="C79">
         <v>6871</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.24591438111956399</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E79">
+        <v>21.279999999999895</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>22.166666666666593</v>
+        <v>20.836666666666595</v>
       </c>
       <c r="C80">
         <v>7518</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.17490675553149215</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E80">
+        <v>20.836666666666595</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>0.88666666666659388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>21.723333333333294</v>
+        <v>20.393333333333295</v>
       </c>
       <c r="C81">
         <v>7630</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.16261486362134681</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E81">
+        <v>20.393333333333295</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>0.44333333333329428</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C82">
         <v>9302</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0885522751537655E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E82">
+        <v>19.949999999999896</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>20.836666666666595</v>
+        <v>19.506666666666597</v>
       </c>
       <c r="C83">
         <v>10857</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19154527203971661</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E83">
+        <v>19.506666666666597</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="3"/>
+        <v>0.88666666666659566</v>
+      </c>
+      <c r="H83">
+        <f>1.33/4</f>
+        <v>0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>20.393333333333295</v>
+        <v>19.063333333333297</v>
       </c>
       <c r="C84">
         <v>9780</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3345561439479567E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E84">
+        <v>19.063333333333297</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="3"/>
+        <v>0.44333333333329605</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C85">
         <v>8894</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.3892083492563332E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E85">
+        <v>18.619999999999898</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="3"/>
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>19.683999999999891</v>
+        <v>18.353999999999893</v>
       </c>
       <c r="C86">
         <v>6724</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.26204748925162979</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E86">
+        <v>18.353999999999893</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="3"/>
+        <v>1.0639999999998917</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>19.417999999999893</v>
+        <v>18.087999999999894</v>
       </c>
       <c r="C87">
         <v>7051</v>
       </c>
       <c r="D87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22615955483540184</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E87">
+        <v>18.087999999999894</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="3"/>
+        <v>0.79799999999989346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>19.151999999999894</v>
+        <v>17.821999999999896</v>
       </c>
       <c r="C88">
         <v>7922</v>
       </c>
       <c r="D88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.13056814542703921</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E88">
+        <v>17.821999999999896</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="3"/>
+        <v>0.53199999999989522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="C89">
         <v>9333</v>
       </c>
       <c r="D89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4287742833809967E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E89">
+        <v>17.555999999999898</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="3"/>
+        <v>0.26599999999989699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>18.619999999999891</v>
+        <v>17.289999999999893</v>
       </c>
       <c r="C90">
         <v>10796</v>
       </c>
       <c r="D90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18485058091008399</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E90">
+        <v>17.289999999999893</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="3"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>18.176666666666591</v>
+        <v>16.957499999999893</v>
       </c>
       <c r="C91">
         <v>11306</v>
       </c>
       <c r="D91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24082258871521023</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E91">
+        <v>16.957499999999893</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="3"/>
+        <v>0.99749999999989214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>17.733333333333292</v>
+        <v>16.624999999999893</v>
       </c>
       <c r="C92">
         <v>9077</v>
       </c>
       <c r="D92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.8080101036650493E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E92">
+        <v>16.624999999999893</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="3"/>
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>17.289999999999893</v>
+        <v>16.292499999999894</v>
       </c>
       <c r="C93">
         <v>7430</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.18456467060374926</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E93">
+        <v>16.292499999999894</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="3"/>
+        <v>0.33249999999989299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -26458,11 +27116,18 @@
         <v>7098</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22100135019453726</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E94">
+        <v>15.959999999999894</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="3"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -26473,11 +27138,18 @@
         <v>6857</v>
       </c>
       <c r="D95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.24745086760833224</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E95">
+        <v>15.627499999999891</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="3"/>
+        <v>0.99749999999989036</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -26488,11 +27160,18 @@
         <v>7933</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.1293609060430071</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E96">
+        <v>15.294999999999895</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="3"/>
+        <v>0.66499999999989434</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -26503,11 +27182,18 @@
         <v>10157</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11472094760130802</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E97">
+        <v>14.962499999999892</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="3"/>
+        <v>0.33249999999989122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -26518,11 +27204,18 @@
         <v>11663</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28000299417879848</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E98">
+        <v>14.629999999999896</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="3"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -26533,11 +27226,18 @@
         <v>11234</v>
       </c>
       <c r="D99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23292065820154528</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E99">
+        <v>14.186666666666596</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="3"/>
+        <v>0.88666666666659566</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -26548,11 +27248,18 @@
         <v>9121</v>
       </c>
       <c r="D100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0209474324633927E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E100">
+        <v>13.743333333333297</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="3"/>
+        <v>0.44333333333329605</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -26563,11 +27270,18 @@
         <v>7664</v>
       </c>
       <c r="D101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.15888339643433835</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E101">
+        <v>13.299999999999891</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="3"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -26578,11 +27292,18 @@
         <v>6567</v>
       </c>
       <c r="D102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.27927808773281571</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E102">
+        <v>13.033999999999892</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="3"/>
+        <v>1.0639999999998917</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -26593,11 +27314,18 @@
         <v>6752</v>
       </c>
       <c r="D103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.25897451627409351</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E103">
+        <v>12.767999999999894</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="3"/>
+        <v>0.79799999999989346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -26608,11 +27336,18 @@
         <v>7293</v>
       </c>
       <c r="D104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.19960028838669486</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E104">
+        <v>12.501999999999896</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="3"/>
+        <v>0.53199999999989522</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -26623,11 +27358,18 @@
         <v>9060</v>
       </c>
       <c r="D105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.6737436971693311E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E105">
+        <v>12.235999999999891</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="3"/>
+        <v>0.26599999999988988</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -26638,11 +27380,18 @@
         <v>10078</v>
       </c>
       <c r="D106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10605077384325923</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E106">
+        <v>11.969999999999892</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="3"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -26653,11 +27402,18 @@
         <v>10329</v>
       </c>
       <c r="D107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13359778160617419</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E107">
+        <v>11.703999999999894</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="3"/>
+        <v>1.0639999999998935</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -26668,11 +27424,18 @@
         <v>10808</v>
       </c>
       <c r="D108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18616756932902812</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E108">
+        <v>11.437999999999896</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="3"/>
+        <v>0.79799999999989524</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -26683,11 +27446,18 @@
         <v>9274</v>
       </c>
       <c r="D109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7812549774001374E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E109">
+        <v>11.17199999999989</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="3"/>
+        <v>0.53199999999988989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -26698,11 +27468,18 @@
         <v>7537</v>
       </c>
       <c r="D110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.17282152386816385</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E110">
+        <v>10.905999999999892</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="3"/>
+        <v>0.26599999999989166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -26713,11 +27490,18 @@
         <v>6485</v>
       </c>
       <c r="D111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.28827750859560075</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E111">
+        <v>10.639999999999894</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="3"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -26728,11 +27512,18 @@
         <v>6555</v>
       </c>
       <c r="D112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.28059507615175994</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E112">
+        <v>10.307499999999891</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="3"/>
+        <v>0.99749999999989036</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -26743,11 +27534,18 @@
         <v>7242</v>
       </c>
       <c r="D113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.20519748916720748</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E113">
+        <v>9.9749999999999943</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="3"/>
+        <v>0.66499999999999382</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -26758,11 +27556,18 @@
         <v>8045</v>
       </c>
       <c r="D114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.11706901413286175</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E114">
+        <v>9.6424999999998917</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="3"/>
+        <v>0.33249999999989122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -26773,11 +27578,18 @@
         <v>9631</v>
       </c>
       <c r="D115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6992955237589626E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E115">
+        <v>9.3099999999999952</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="3"/>
+        <v>1.3299999999999947</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -26788,11 +27600,18 @@
         <v>11309</v>
       </c>
       <c r="D116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24115183581994626</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E116">
+        <v>9.0883333333332956</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="3"/>
+        <v>1.1083333333332952</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -26803,11 +27622,18 @@
         <v>11732</v>
       </c>
       <c r="D117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2875756775877274</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E117">
+        <v>8.8666666666665961</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="3"/>
+        <v>0.88666666666659566</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -26818,11 +27644,18 @@
         <v>10270</v>
       </c>
       <c r="D118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1271225885463656</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E118">
+        <v>8.644999999999996</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="3"/>
+        <v>0.66499999999999559</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -26833,11 +27666,18 @@
         <v>8954</v>
       </c>
       <c r="D119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.7307141397842618E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E119">
+        <v>8.4233333333332965</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="3"/>
+        <v>0.44333333333329605</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -26848,11 +27688,18 @@
         <v>7744</v>
       </c>
       <c r="D120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.15010347364137733</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E120">
+        <v>8.2016666666665969</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="3"/>
+        <v>0.22166666666659651</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -26863,11 +27710,18 @@
         <v>7028</v>
       </c>
       <c r="D121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22868378263837807</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E121">
+        <v>7.9799999999999969</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="3"/>
+        <v>1.3299999999999965</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -26878,11 +27732,18 @@
         <v>7159</v>
       </c>
       <c r="D122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.21430665906490454</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E122">
+        <v>7.7139999999999915</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="3"/>
+        <v>1.0639999999999912</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -26893,11 +27754,18 @@
         <v>7834</v>
       </c>
       <c r="D123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.14022606049929631</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E123">
+        <v>7.4479999999998938</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="3"/>
+        <v>0.79799999999989346</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -26908,11 +27776,18 @@
         <v>8719</v>
       </c>
       <c r="D124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.3098164602165423E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E124">
+        <v>7.1819999999999951</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="3"/>
+        <v>0.5319999999999947</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -26923,11 +27798,18 @@
         <v>9161</v>
       </c>
       <c r="D125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4109088289440166E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E125">
+        <v>6.9159999999999968</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="3"/>
+        <v>0.26599999999999646</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -26938,11 +27820,18 @@
         <v>10178</v>
       </c>
       <c r="D126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11702567733446045</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E126">
+        <v>6.6499999999999915</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="3"/>
+        <v>1.3299999999999912</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -26953,11 +27842,18 @@
         <v>11416</v>
       </c>
       <c r="D127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25289498255553156</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E127">
+        <v>6.3839999999999932</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="3"/>
+        <v>1.063999999999993</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -26968,11 +27864,18 @@
         <v>10710</v>
       </c>
       <c r="D128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17541216390765091</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E128">
+        <v>6.117999999999995</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="3"/>
+        <v>0.79799999999999471</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -26983,11 +27886,18 @@
         <v>10208</v>
       </c>
       <c r="D129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12031814838182076</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E129">
+        <v>5.8519999999999968</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="3"/>
+        <v>0.53199999999999648</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -26998,11 +27908,18 @@
         <v>8504</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D193" si="2">C130/AVERAGE(C:C) -1</f>
+        <f t="shared" ref="D130:D193" si="4">C130/AVERAGE(C:C) -1</f>
         <v>-6.6694207108248138E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E130">
+        <v>5.5859999999999914</v>
+      </c>
+      <c r="F130">
+        <f t="shared" ref="F130:F193" si="5">MOD(E130,1.33)</f>
+        <v>0.26599999999999113</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -27013,11 +27930,18 @@
         <v>7299</v>
       </c>
       <c r="D131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.1989417941772228</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E131">
+        <v>5.3199999999999932</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="5"/>
+        <v>1.329999999999993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -27028,11 +27952,18 @@
         <v>6653</v>
       </c>
       <c r="D132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.26983967073038273</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E132">
+        <v>5.1299999999999955</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="5"/>
+        <v>1.1399999999999952</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -27043,11 +27974,18 @@
         <v>6503</v>
       </c>
       <c r="D133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.28630202596718457</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E133">
+        <v>4.9399999999999906</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="5"/>
+        <v>0.94999999999999041</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -27058,11 +27996,18 @@
         <v>6998</v>
       </c>
       <c r="D134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.23197625368573849</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E134">
+        <v>4.7499999999999929</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="5"/>
+        <v>0.75999999999999268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -27073,11 +28018,18 @@
         <v>7360</v>
       </c>
       <c r="D135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.19224710304759007</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E135">
+        <v>4.5599999999999952</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="5"/>
+        <v>0.56999999999999496</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -27088,11 +28040,18 @@
         <v>8498</v>
       </c>
       <c r="D136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.7352701317720198E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E136">
+        <v>4.3699999999999903</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>0.37999999999999012</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -27103,11 +28062,18 @@
         <v>9789</v>
       </c>
       <c r="D137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.4333302753687658E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E137">
+        <v>4.1799999999999926</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="5"/>
+        <v>0.1899999999999924</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -27118,11 +28084,18 @@
         <v>10848</v>
       </c>
       <c r="D138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.19055753072550852</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E138">
+        <v>3.9899999999999949</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="5"/>
+        <v>1.3299999999999947</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -27133,11 +28106,18 @@
         <v>10690</v>
       </c>
       <c r="D139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17321718320941071</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E139">
+        <v>3.7683333333332953</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="5"/>
+        <v>1.1083333333332952</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -27148,11 +28128,18 @@
         <v>11316</v>
       </c>
       <c r="D140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24192007906433033</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E140">
+        <v>3.5466666666665958</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="5"/>
+        <v>0.88666666666659566</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -27163,11 +28150,18 @@
         <v>11923</v>
       </c>
       <c r="D141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.30853774325592176</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E141">
+        <v>3.3249999999999957</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="5"/>
+        <v>0.66499999999999559</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -27178,11 +28172,18 @@
         <v>10856</v>
       </c>
       <c r="D142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1914355230048046</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E142">
+        <v>3.1033333333332962</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="5"/>
+        <v>0.44333333333329605</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -27193,11 +28194,18 @@
         <v>10172</v>
       </c>
       <c r="D143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11636718312498839</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E143">
+        <v>2.8816666666665967</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="5"/>
+        <v>0.22166666666659651</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -27208,11 +28216,18 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.5073647230581715E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E144">
+        <v>2.6599999999999966</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="5"/>
+        <v>1.3299999999999965</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -27223,11 +28238,18 @@
         <v>7420</v>
       </c>
       <c r="D145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.18566216095286936</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E145">
+        <v>2.5390909090908949</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="5"/>
+        <v>1.2090909090908948</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -27238,11 +28260,18 @@
         <v>7278</v>
       </c>
       <c r="D146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.20124652391037512</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E146">
+        <v>2.4181818181818002</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="5"/>
+        <v>1.0881818181818002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -27253,11 +28282,18 @@
         <v>6903</v>
       </c>
       <c r="D147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.24240241200237966</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E147">
+        <v>2.2972727272726914</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="5"/>
+        <v>0.96727272727269131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -27268,11 +28304,18 @@
         <v>7352</v>
       </c>
       <c r="D148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.19312509532688615</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E148">
+        <v>2.1763636363635968</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="5"/>
+        <v>0.84636363636359668</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -27283,11 +28326,18 @@
         <v>7913</v>
       </c>
       <c r="D149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.1315558867412473</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E149">
+        <v>2.0554545454544879</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="5"/>
+        <v>0.72545454545448784</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -27298,11 +28348,18 @@
         <v>8093</v>
       </c>
       <c r="D150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.11180106045708516</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E150">
+        <v>1.9345454545453933</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="5"/>
+        <v>0.60454545454539321</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -27313,11 +28370,18 @@
         <v>9230</v>
       </c>
       <c r="D151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.298359223787271E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E151">
+        <v>1.8136363636362987</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="5"/>
+        <v>0.48363636363629858</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -27328,11 +28392,18 @@
         <v>10027</v>
       </c>
       <c r="D152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10045357306274649</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E152">
+        <v>1.6927272727271898</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="5"/>
+        <v>0.36272727272718974</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -27343,11 +28414,18 @@
         <v>10502</v>
       </c>
       <c r="D153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15258436464595238</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E153">
+        <v>1.5718181818180952</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="5"/>
+        <v>0.24181818181809511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -27358,11 +28436,18 @@
         <v>11491</v>
       </c>
       <c r="D154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26112616017393231</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E154">
+        <v>1.4509090909089863</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="5"/>
+        <v>0.12090909090898627</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
@@ -27373,11 +28458,18 @@
         <v>11675</v>
       </c>
       <c r="D155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2813199825977426</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E155">
+        <v>1.3299999999999912</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="5"/>
+        <v>1.3299999999999912</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -27388,11 +28480,18 @@
         <v>11711</v>
       </c>
       <c r="D156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28527094785457519</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E156">
+        <v>1.1822222222221868</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="5"/>
+        <v>1.1822222222221868</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -27403,11 +28502,18 @@
         <v>11221</v>
       </c>
       <c r="D157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23149392074768915</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E157">
+        <v>1.0344444444443965</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="5"/>
+        <v>1.0344444444443965</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -27418,11 +28524,18 @@
         <v>11026</v>
       </c>
       <c r="D158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21009285893984675</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E158">
+        <v>0.88666666666659211</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="5"/>
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -27433,11 +28546,18 @@
         <v>10258</v>
       </c>
       <c r="D159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12580560012742126</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E159">
+        <v>0.73888888888878768</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="5"/>
+        <v>0.73888888888878768</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -27448,11 +28568,18 @@
         <v>11108</v>
       </c>
       <c r="D160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2190922798026318</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E160">
+        <v>0.59111111111109693</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="5"/>
+        <v>0.59111111111109693</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -27463,11 +28590,18 @@
         <v>9599</v>
       </c>
       <c r="D161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3480986120405305E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E161">
+        <v>0.4433333333332925</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="5"/>
+        <v>0.4433333333332925</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -27478,11 +28612,18 @@
         <v>9398</v>
       </c>
       <c r="D162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1421430103090842E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E162">
+        <v>0.29555555555548807</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="5"/>
+        <v>0.29555555555548807</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
@@ -27493,11 +28634,18 @@
         <v>8449</v>
       </c>
       <c r="D163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.2730404028408802E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E163">
+        <v>0.14777777777769785</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="5"/>
+        <v>0.14777777777769785</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>163</v>
       </c>
@@ -27508,11 +28656,18 @@
         <v>7190</v>
       </c>
       <c r="D164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.21090443898263211</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>164</v>
       </c>
@@ -27520,11 +28675,15 @@
         <v>6968</v>
       </c>
       <c r="D165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.2352687247330989</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F165">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>165</v>
       </c>
@@ -27532,11 +28691,15 @@
         <v>7402</v>
       </c>
       <c r="D166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.18763764358128554</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F166">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>166</v>
       </c>
@@ -27544,11 +28707,15 @@
         <v>7139</v>
       </c>
       <c r="D167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.21650163976314474</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F167">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>167</v>
       </c>
@@ -27556,11 +28723,15 @@
         <v>6824</v>
       </c>
       <c r="D168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.25107258576042857</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F168">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>168</v>
       </c>
@@ -27568,11 +28739,15 @@
         <v>7395</v>
       </c>
       <c r="D169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.18840588682566961</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F169">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>169</v>
       </c>
@@ -27580,11 +28755,15 @@
         <v>7413</v>
       </c>
       <c r="D170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.18643040419725343</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F170">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>170</v>
       </c>
@@ -27592,11 +28771,15 @@
         <v>7716</v>
       </c>
       <c r="D171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.15317644661891372</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F171">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>171</v>
       </c>
@@ -27604,11 +28787,15 @@
         <v>8268</v>
       </c>
       <c r="D172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-9.2594979347482953E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F172">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>172</v>
       </c>
@@ -27616,11 +28803,15 @@
         <v>8357</v>
       </c>
       <c r="D173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-8.2827315240313837E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>173</v>
       </c>
@@ -27628,11 +28819,15 @@
         <v>7851</v>
       </c>
       <c r="D174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.13836032690579203</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F174">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>174</v>
       </c>
@@ -27640,11 +28835,15 @@
         <v>8387</v>
       </c>
       <c r="D175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.9534844192953535E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F175">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>175</v>
       </c>
@@ -27652,11 +28851,15 @@
         <v>8776</v>
       </c>
       <c r="D176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.6842469612180739E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F176">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>176</v>
       </c>
@@ -27664,11 +28867,15 @@
         <v>9267</v>
       </c>
       <c r="D177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7044306529617304E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F177">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>177</v>
       </c>
@@ -27676,11 +28883,15 @@
         <v>8748</v>
       </c>
       <c r="D178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.9915442589717132E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F178">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>178</v>
       </c>
@@ -27688,11 +28899,15 @@
         <v>9647</v>
       </c>
       <c r="D179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.8748939796181787E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F179">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>179</v>
       </c>
@@ -27700,11 +28915,15 @@
         <v>9872</v>
       </c>
       <c r="D180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.3442472651384714E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F180">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>180</v>
       </c>
@@ -27712,11 +28931,15 @@
         <v>9856</v>
       </c>
       <c r="D181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.1686488092792331E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F181">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>181</v>
       </c>
@@ -27724,11 +28947,15 @@
         <v>10080</v>
       </c>
       <c r="D182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10627027191308325</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F182">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>182</v>
       </c>
@@ -27736,11 +28963,15 @@
         <v>10266</v>
       </c>
       <c r="D183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12668359240671734</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F183">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>183</v>
       </c>
@@ -27748,11 +28979,15 @@
         <v>10857</v>
       </c>
       <c r="D184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.19154527203971661</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F184">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>184</v>
       </c>
@@ -27760,11 +28995,15 @@
         <v>11136</v>
       </c>
       <c r="D185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22216525278016808</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F185">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>185</v>
       </c>
@@ -27772,11 +29011,15 @@
         <v>11286</v>
       </c>
       <c r="D186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23862760801696981</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F186">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>186</v>
       </c>
@@ -27784,11 +29027,15 @@
         <v>11826</v>
       </c>
       <c r="D187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.29789208686945656</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F187">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>187</v>
       </c>
@@ -27796,11 +29043,15 @@
         <v>11597</v>
       </c>
       <c r="D188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.27275955787460582</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F188">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>188</v>
       </c>
@@ -27808,11 +29059,15 @@
         <v>12384</v>
       </c>
       <c r="D189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35913204835035928</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F189">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>189</v>
       </c>
@@ -27820,11 +29075,15 @@
         <v>12302</v>
       </c>
       <c r="D190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35013262748757423</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F190">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>190</v>
       </c>
@@ -27832,11 +29091,15 @@
         <v>12049</v>
       </c>
       <c r="D191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.32236612165483525</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F191">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>191</v>
       </c>
@@ -27844,11 +29107,15 @@
         <v>12028</v>
       </c>
       <c r="D192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.32006139192168304</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F192">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>192</v>
       </c>
@@ -27856,11 +29123,15 @@
         <v>12682</v>
       </c>
       <c r="D193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.39183726075413894</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F193">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>193</v>
       </c>
@@ -27868,11 +29139,15 @@
         <v>11687</v>
       </c>
       <c r="D194">
-        <f t="shared" ref="D194:D195" si="3">C194/AVERAGE(C:C) -1</f>
+        <f t="shared" ref="D194:D195" si="6">C194/AVERAGE(C:C) -1</f>
         <v>0.28263697101668672</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F194">
+        <f t="shared" ref="F194:F196" si="7">MOD(E194,1.33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>194</v>
       </c>
@@ -27880,12 +29155,20 @@
         <v>11788</v>
       </c>
       <c r="D195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.29372162354279996</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F195">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
